--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4102,28 +4102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4728.083754924285</v>
+        <v>4967.360958574481</v>
       </c>
       <c r="AB2" t="n">
-        <v>6469.172781821619</v>
+        <v>6796.562408021044</v>
       </c>
       <c r="AC2" t="n">
-        <v>5851.764011065344</v>
+        <v>6147.908030834509</v>
       </c>
       <c r="AD2" t="n">
-        <v>4728083.754924285</v>
+        <v>4967360.95857448</v>
       </c>
       <c r="AE2" t="n">
-        <v>6469172.781821619</v>
+        <v>6796562.408021044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562798062200699e-07</v>
+        <v>7.713636512856437e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.40972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5851764.011065343</v>
+        <v>6147908.030834509</v>
       </c>
     </row>
     <row r="3">
@@ -4208,28 +4208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2757.990210448184</v>
+        <v>2924.451365520886</v>
       </c>
       <c r="AB3" t="n">
-        <v>3773.60387987619</v>
+        <v>4001.36337599454</v>
       </c>
       <c r="AC3" t="n">
-        <v>3413.456421866974</v>
+        <v>3619.47887133824</v>
       </c>
       <c r="AD3" t="n">
-        <v>2757990.210448185</v>
+        <v>2924451.365520886</v>
       </c>
       <c r="AE3" t="n">
-        <v>3773603.87987619</v>
+        <v>4001363.37599454</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.46448910539001e-07</v>
+        <v>1.092853957605316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.34259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>3413456.421866974</v>
+        <v>3619478.871338239</v>
       </c>
     </row>
     <row r="4">
@@ -4314,28 +4314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2331.242114047996</v>
+        <v>2476.959641566107</v>
       </c>
       <c r="AB4" t="n">
-        <v>3189.708307584135</v>
+        <v>3389.085457338032</v>
       </c>
       <c r="AC4" t="n">
-        <v>2885.287023491911</v>
+        <v>3065.635897900876</v>
       </c>
       <c r="AD4" t="n">
-        <v>2331242.114047996</v>
+        <v>2476959.641566107</v>
       </c>
       <c r="AE4" t="n">
-        <v>3189708.307584135</v>
+        <v>3389085.457338032</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.210775482736602e-07</v>
+        <v>1.219017372485254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.09799382716049</v>
       </c>
       <c r="AH4" t="n">
-        <v>2885287.023491911</v>
+        <v>3065635.897900876</v>
       </c>
     </row>
     <row r="5">
@@ -4420,28 +4420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2121.69312777739</v>
+        <v>2267.410565786952</v>
       </c>
       <c r="AB5" t="n">
-        <v>2902.994139919689</v>
+        <v>3102.371167204208</v>
       </c>
       <c r="AC5" t="n">
-        <v>2625.936453583618</v>
+        <v>2806.285217211401</v>
       </c>
       <c r="AD5" t="n">
-        <v>2121693.12777739</v>
+        <v>2267410.565786952</v>
       </c>
       <c r="AE5" t="n">
-        <v>2902994.139919689</v>
+        <v>3102371.167204208</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.623044874866844e-07</v>
+        <v>1.288713558748978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.58179012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>2625936.453583618</v>
+        <v>2806285.217211401</v>
       </c>
     </row>
     <row r="6">
@@ -4526,28 +4526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2001.634256022269</v>
+        <v>2137.02255068182</v>
       </c>
       <c r="AB6" t="n">
-        <v>2738.724294960728</v>
+        <v>2923.968532623939</v>
       </c>
       <c r="AC6" t="n">
-        <v>2477.344292073366</v>
+        <v>2644.90907968592</v>
       </c>
       <c r="AD6" t="n">
-        <v>2001634.256022269</v>
+        <v>2137022.55068182</v>
       </c>
       <c r="AE6" t="n">
-        <v>2738724.294960728</v>
+        <v>2923968.532623939</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.874082797718126e-07</v>
+        <v>1.331152765161793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.73302469135803</v>
       </c>
       <c r="AH6" t="n">
-        <v>2477344.292073365</v>
+        <v>2644909.079685919</v>
       </c>
     </row>
     <row r="7">
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1924.898381927492</v>
+        <v>2060.11608438645</v>
       </c>
       <c r="AB7" t="n">
-        <v>2633.730886676414</v>
+        <v>2818.741712564778</v>
       </c>
       <c r="AC7" t="n">
-        <v>2382.371307316533</v>
+        <v>2549.724959646436</v>
       </c>
       <c r="AD7" t="n">
-        <v>1924898.381927492</v>
+        <v>2060116.08438645</v>
       </c>
       <c r="AE7" t="n">
-        <v>2633730.886676414</v>
+        <v>2818741.712564779</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.043717210021398e-07</v>
+        <v>1.359830304223172e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.18904320987654</v>
       </c>
       <c r="AH7" t="n">
-        <v>2382371.307316533</v>
+        <v>2549724.959646436</v>
       </c>
     </row>
     <row r="8">
@@ -4738,28 +4738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1850.925421187515</v>
+        <v>1986.228374992495</v>
       </c>
       <c r="AB8" t="n">
-        <v>2532.517818335274</v>
+        <v>2717.645288876288</v>
       </c>
       <c r="AC8" t="n">
-        <v>2290.817872164437</v>
+        <v>2458.277036745053</v>
       </c>
       <c r="AD8" t="n">
-        <v>1850925.421187515</v>
+        <v>1986228.374992494</v>
       </c>
       <c r="AE8" t="n">
-        <v>2532517.818335274</v>
+        <v>2717645.288876288</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.173437642959194e-07</v>
+        <v>1.381760187034815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2290817.872164437</v>
+        <v>2458277.036745053</v>
       </c>
     </row>
     <row r="9">
@@ -4844,28 +4844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1799.39318178664</v>
+        <v>1934.696135591619</v>
       </c>
       <c r="AB9" t="n">
-        <v>2462.009134945045</v>
+        <v>2647.136605486059</v>
       </c>
       <c r="AC9" t="n">
-        <v>2227.038438557413</v>
+        <v>2394.497603138029</v>
       </c>
       <c r="AD9" t="n">
-        <v>1799393.18178664</v>
+        <v>1934696.135591619</v>
       </c>
       <c r="AE9" t="n">
-        <v>2462009.134945045</v>
+        <v>2647136.605486059</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.268495935921708e-07</v>
+        <v>1.397830263103266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.50617283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>2227038.438557413</v>
+        <v>2394497.603138029</v>
       </c>
     </row>
     <row r="10">
@@ -4950,28 +4950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1748.234348319675</v>
+        <v>1873.122907428624</v>
       </c>
       <c r="AB10" t="n">
-        <v>2392.011362027101</v>
+        <v>2562.889398294339</v>
       </c>
       <c r="AC10" t="n">
-        <v>2163.721154844266</v>
+        <v>2318.290831158988</v>
       </c>
       <c r="AD10" t="n">
-        <v>1748234.348319675</v>
+        <v>1873122.907428624</v>
       </c>
       <c r="AE10" t="n">
-        <v>2392011.362027101</v>
+        <v>2562889.398294338</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.354100917981873e-07</v>
+        <v>1.412302210059937e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.2554012345679</v>
       </c>
       <c r="AH10" t="n">
-        <v>2163721.154844265</v>
+        <v>2318290.831158988</v>
       </c>
     </row>
     <row r="11">
@@ -5056,28 +5056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1708.580928498692</v>
+        <v>1833.469487607642</v>
       </c>
       <c r="AB11" t="n">
-        <v>2337.755803642615</v>
+        <v>2508.633839909853</v>
       </c>
       <c r="AC11" t="n">
-        <v>2114.643670803841</v>
+        <v>2269.213347118563</v>
       </c>
       <c r="AD11" t="n">
-        <v>1708580.928498692</v>
+        <v>1833469.487607642</v>
       </c>
       <c r="AE11" t="n">
-        <v>2337755.803642615</v>
+        <v>2508633.839909853</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.411871151274008e-07</v>
+        <v>1.422068554631924e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.08564814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>2114643.670803841</v>
+        <v>2269213.347118563</v>
       </c>
     </row>
     <row r="12">
@@ -5162,28 +5162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1652.520781972052</v>
+        <v>1787.73839492246</v>
       </c>
       <c r="AB12" t="n">
-        <v>2261.051837965751</v>
+        <v>2446.062541384567</v>
       </c>
       <c r="AC12" t="n">
-        <v>2045.260223956485</v>
+        <v>2212.613765505162</v>
       </c>
       <c r="AD12" t="n">
-        <v>1652520.781972053</v>
+        <v>1787738.39492246</v>
       </c>
       <c r="AE12" t="n">
-        <v>2261051.837965752</v>
+        <v>2446062.541384567</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.464914729114971e-07</v>
+        <v>1.431035834648021e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.93518518518518</v>
       </c>
       <c r="AH12" t="n">
-        <v>2045260.223956485</v>
+        <v>2212613.765505162</v>
       </c>
     </row>
     <row r="13">
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1617.911278662149</v>
+        <v>1753.128891612556</v>
       </c>
       <c r="AB13" t="n">
-        <v>2213.697588673616</v>
+        <v>2398.708292092432</v>
       </c>
       <c r="AC13" t="n">
-        <v>2002.425397754685</v>
+        <v>2169.778939303362</v>
       </c>
       <c r="AD13" t="n">
-        <v>1617911.278662149</v>
+        <v>1753128.891612556</v>
       </c>
       <c r="AE13" t="n">
-        <v>2213697.588673616</v>
+        <v>2398708.292092432</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.503778340602408e-07</v>
+        <v>1.437605920996448e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.82716049382716</v>
       </c>
       <c r="AH13" t="n">
-        <v>2002425.397754685</v>
+        <v>2169778.939303362</v>
       </c>
     </row>
     <row r="14">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1620.119516748965</v>
+        <v>1755.337129699372</v>
       </c>
       <c r="AB14" t="n">
-        <v>2216.718997444586</v>
+        <v>2401.729700863401</v>
       </c>
       <c r="AC14" t="n">
-        <v>2005.158447513127</v>
+        <v>2172.511989061804</v>
       </c>
       <c r="AD14" t="n">
-        <v>1620119.516748965</v>
+        <v>1755337.129699372</v>
       </c>
       <c r="AE14" t="n">
-        <v>2216718.997444586</v>
+        <v>2401729.700863401</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.499051685151233e-07</v>
+        <v>1.436806856440558e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.83873456790123</v>
       </c>
       <c r="AH14" t="n">
-        <v>2005158.447513127</v>
+        <v>2172511.989061804</v>
       </c>
     </row>
     <row r="15">
@@ -5480,28 +5480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1624.115180769644</v>
+        <v>1759.332793720051</v>
       </c>
       <c r="AB15" t="n">
-        <v>2222.186041233934</v>
+        <v>2407.19674465275</v>
       </c>
       <c r="AC15" t="n">
-        <v>2010.103724316264</v>
+        <v>2177.457265864941</v>
       </c>
       <c r="AD15" t="n">
-        <v>1624115.180769644</v>
+        <v>1759332.793720051</v>
       </c>
       <c r="AE15" t="n">
-        <v>2222186.041233934</v>
+        <v>2407196.74465275</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.509030179992602e-07</v>
+        <v>1.438493770502992e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.81172839506173</v>
       </c>
       <c r="AH15" t="n">
-        <v>2010103.724316264</v>
+        <v>2177457.265864941</v>
       </c>
     </row>
   </sheetData>
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3512.399752565697</v>
+        <v>3714.125768588328</v>
       </c>
       <c r="AB2" t="n">
-        <v>4805.820297601488</v>
+        <v>5081.830732247398</v>
       </c>
       <c r="AC2" t="n">
-        <v>4347.159553409371</v>
+        <v>4596.827939555743</v>
       </c>
       <c r="AD2" t="n">
-        <v>3512399.752565697</v>
+        <v>3714125.768588328</v>
       </c>
       <c r="AE2" t="n">
-        <v>4805820.297601488</v>
+        <v>5081830.732247398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.399813349921645e-07</v>
+        <v>9.351348201481469e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.81944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4347159.553409372</v>
+        <v>4596827.939555743</v>
       </c>
     </row>
     <row r="3">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2250.092417379267</v>
+        <v>2401.280342836578</v>
       </c>
       <c r="AB3" t="n">
-        <v>3078.675712530027</v>
+        <v>3285.53770208126</v>
       </c>
       <c r="AC3" t="n">
-        <v>2784.851223474545</v>
+        <v>2971.970595075627</v>
       </c>
       <c r="AD3" t="n">
-        <v>2250092.417379268</v>
+        <v>2401280.342836578</v>
       </c>
       <c r="AE3" t="n">
-        <v>3078675.712530027</v>
+        <v>3285537.70208126</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.165523520687852e-07</v>
+        <v>1.240918919703582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.25154320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>2784851.223474545</v>
+        <v>2971970.595075627</v>
       </c>
     </row>
     <row r="4">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1938.172012995144</v>
+        <v>2079.354621954615</v>
       </c>
       <c r="AB4" t="n">
-        <v>2651.892454294451</v>
+        <v>2845.064728409918</v>
       </c>
       <c r="AC4" t="n">
-        <v>2398.799560411023</v>
+        <v>2573.535743803899</v>
       </c>
       <c r="AD4" t="n">
-        <v>1938172.012995144</v>
+        <v>2079354.621954615</v>
       </c>
       <c r="AE4" t="n">
-        <v>2651892.454294451</v>
+        <v>2845064.728409918</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.830517135770265e-07</v>
+        <v>1.356081915966922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.76697530864197</v>
       </c>
       <c r="AH4" t="n">
-        <v>2398799.560411023</v>
+        <v>2573535.743803899</v>
       </c>
     </row>
     <row r="5">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1785.0443860368</v>
+        <v>1916.221768006981</v>
       </c>
       <c r="AB5" t="n">
-        <v>2442.376479575922</v>
+        <v>2621.859160725182</v>
       </c>
       <c r="AC5" t="n">
-        <v>2209.279496262115</v>
+        <v>2371.632602228013</v>
       </c>
       <c r="AD5" t="n">
-        <v>1785044.3860368</v>
+        <v>1916221.768006981</v>
       </c>
       <c r="AE5" t="n">
-        <v>2442376.479575922</v>
+        <v>2621859.160725182</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.190178715169412e-07</v>
+        <v>1.418367784860983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.59027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2209279.496262114</v>
+        <v>2371632.602228013</v>
       </c>
     </row>
     <row r="6">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1682.873222912906</v>
+        <v>1813.965264028516</v>
       </c>
       <c r="AB6" t="n">
-        <v>2302.581386716216</v>
+        <v>2481.947300743278</v>
       </c>
       <c r="AC6" t="n">
-        <v>2082.826250861293</v>
+        <v>2245.073733795254</v>
       </c>
       <c r="AD6" t="n">
-        <v>1682873.222912906</v>
+        <v>1813965.264028516</v>
       </c>
       <c r="AE6" t="n">
-        <v>2302581.386716216</v>
+        <v>2481947.300743278</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.409126776344423e-07</v>
+        <v>1.456285013205857e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.9266975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>2082826.250861293</v>
+        <v>2245073.733795254</v>
       </c>
     </row>
     <row r="7">
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1610.707612887711</v>
+        <v>1741.629061802729</v>
       </c>
       <c r="AB7" t="n">
-        <v>2203.841215357726</v>
+        <v>2382.97371760994</v>
       </c>
       <c r="AC7" t="n">
-        <v>1993.509702874556</v>
+        <v>2155.546050525866</v>
       </c>
       <c r="AD7" t="n">
-        <v>1610707.612887711</v>
+        <v>1741629.061802729</v>
       </c>
       <c r="AE7" t="n">
-        <v>2203841.215357726</v>
+        <v>2382973.71760994</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.557446430688784e-07</v>
+        <v>1.481970877568514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.4945987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>1993509.702874556</v>
+        <v>2155546.050525866</v>
       </c>
     </row>
     <row r="8">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1547.377979231189</v>
+        <v>1668.37954201149</v>
       </c>
       <c r="AB8" t="n">
-        <v>2117.19081668262</v>
+        <v>2282.750493090825</v>
       </c>
       <c r="AC8" t="n">
-        <v>1915.129096634404</v>
+        <v>2064.887989890676</v>
       </c>
       <c r="AD8" t="n">
-        <v>1547377.979231189</v>
+        <v>1668379.54201149</v>
       </c>
       <c r="AE8" t="n">
-        <v>2117190.81668262</v>
+        <v>2282750.493090825</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.674254949677933e-07</v>
+        <v>1.502199671846797e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.16280864197531</v>
       </c>
       <c r="AH8" t="n">
-        <v>1915129.096634404</v>
+        <v>2064887.989890676</v>
       </c>
     </row>
     <row r="9">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1482.314802065826</v>
+        <v>1613.321502326864</v>
       </c>
       <c r="AB9" t="n">
-        <v>2028.168507300175</v>
+        <v>2207.417654205039</v>
       </c>
       <c r="AC9" t="n">
-        <v>1834.602951515824</v>
+        <v>1996.744811417845</v>
       </c>
       <c r="AD9" t="n">
-        <v>1482314.802065826</v>
+        <v>1613321.502326864</v>
       </c>
       <c r="AE9" t="n">
-        <v>2028168.507300175</v>
+        <v>2207417.654205039</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.747599833694376e-07</v>
+        <v>1.514901472905253e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.96219135802469</v>
       </c>
       <c r="AH9" t="n">
-        <v>1834602.951515824</v>
+        <v>1996744.811417845</v>
       </c>
     </row>
     <row r="10">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1467.953844629409</v>
+        <v>1598.960544890448</v>
       </c>
       <c r="AB10" t="n">
-        <v>2008.519211774942</v>
+        <v>2187.768358679806</v>
       </c>
       <c r="AC10" t="n">
-        <v>1816.82895717756</v>
+        <v>1978.970817079581</v>
       </c>
       <c r="AD10" t="n">
-        <v>1467953.844629409</v>
+        <v>1598960.544890448</v>
       </c>
       <c r="AE10" t="n">
-        <v>2008519.211774942</v>
+        <v>2187768.358679806</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.774221310115158e-07</v>
+        <v>1.519511756252397e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1816828.95717756</v>
+        <v>1978970.817079581</v>
       </c>
     </row>
     <row r="11">
@@ -6731,28 +6731,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1471.773801308644</v>
+        <v>1602.780501569682</v>
       </c>
       <c r="AB11" t="n">
-        <v>2013.745845028065</v>
+        <v>2192.994991932929</v>
       </c>
       <c r="AC11" t="n">
-        <v>1821.55676788863</v>
+        <v>1983.698627790652</v>
       </c>
       <c r="AD11" t="n">
-        <v>1471773.801308644</v>
+        <v>1602780.501569682</v>
       </c>
       <c r="AE11" t="n">
-        <v>2013745.845028065</v>
+        <v>2192994.991932929</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.773678014677999e-07</v>
+        <v>1.519417668837149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1821556.76788863</v>
+        <v>1983698.627790652</v>
       </c>
     </row>
   </sheetData>
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1569.437869605152</v>
+        <v>1706.083012941311</v>
       </c>
       <c r="AB2" t="n">
-        <v>2147.374131905952</v>
+        <v>2334.338045376749</v>
       </c>
       <c r="AC2" t="n">
-        <v>1942.431758615371</v>
+        <v>2111.552098590015</v>
       </c>
       <c r="AD2" t="n">
-        <v>1569437.869605152</v>
+        <v>1706083.012941311</v>
       </c>
       <c r="AE2" t="n">
-        <v>2147374.131905952</v>
+        <v>2334338.045376749</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.066610304168771e-07</v>
+        <v>1.526376254709635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.99305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1942431.758615371</v>
+        <v>2111552.098590015</v>
       </c>
     </row>
     <row r="3">
@@ -7134,28 +7134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1195.226298530596</v>
+        <v>1313.555459295303</v>
       </c>
       <c r="AB3" t="n">
-        <v>1635.36135131238</v>
+        <v>1797.264529384794</v>
       </c>
       <c r="AC3" t="n">
-        <v>1479.284759187198</v>
+        <v>1625.736125176918</v>
       </c>
       <c r="AD3" t="n">
-        <v>1195226.298530596</v>
+        <v>1313555.459295303</v>
       </c>
       <c r="AE3" t="n">
-        <v>1635361.35131238</v>
+        <v>1797264.529384794</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.288181006325697e-07</v>
+        <v>1.757523718503406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.18132716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>1479284.759187198</v>
+        <v>1625736.125176918</v>
       </c>
     </row>
     <row r="4">
@@ -7240,28 +7240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1107.763318357897</v>
+        <v>1226.177730468625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1515.690643245734</v>
+        <v>1677.710465970797</v>
       </c>
       <c r="AC4" t="n">
-        <v>1371.035255539539</v>
+        <v>1517.592133779972</v>
       </c>
       <c r="AD4" t="n">
-        <v>1107763.318357897</v>
+        <v>1226177.730468625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1515690.643245734</v>
+        <v>1677710.465970797</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.541588725185051e-07</v>
+        <v>1.805473911985191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1371035.255539539</v>
+        <v>1517592.133779972</v>
       </c>
     </row>
     <row r="5">
@@ -7346,28 +7346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1114.779604129658</v>
+        <v>1233.194016240386</v>
       </c>
       <c r="AB5" t="n">
-        <v>1525.29063497534</v>
+        <v>1687.310457700404</v>
       </c>
       <c r="AC5" t="n">
-        <v>1379.719037532145</v>
+        <v>1526.275915772577</v>
       </c>
       <c r="AD5" t="n">
-        <v>1114779.604129658</v>
+        <v>1233194.016240386</v>
       </c>
       <c r="AE5" t="n">
-        <v>1525290.63497534</v>
+        <v>1687310.457700404</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.540376248061323e-07</v>
+        <v>1.80524448522212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1379719.037532145</v>
+        <v>1526275.915772578</v>
       </c>
     </row>
   </sheetData>
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2139.845145248652</v>
+        <v>2301.117186782043</v>
       </c>
       <c r="AB2" t="n">
-        <v>2927.830531034362</v>
+        <v>3148.490053080862</v>
       </c>
       <c r="AC2" t="n">
-        <v>2648.402494388401</v>
+        <v>2848.002581348248</v>
       </c>
       <c r="AD2" t="n">
-        <v>2139845.145248652</v>
+        <v>2301117.186782043</v>
       </c>
       <c r="AE2" t="n">
-        <v>2927830.531034362</v>
+        <v>3148490.053080862</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.001388118940657e-07</v>
+        <v>1.275500862778494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.95987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>2648402.494388401</v>
+        <v>2848002.581348248</v>
       </c>
     </row>
     <row r="3">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1554.067020216992</v>
+        <v>1686.934510268035</v>
       </c>
       <c r="AB3" t="n">
-        <v>2126.343057659056</v>
+        <v>2308.138219246856</v>
       </c>
       <c r="AC3" t="n">
-        <v>1923.4078605773</v>
+        <v>2087.852747094272</v>
       </c>
       <c r="AD3" t="n">
-        <v>1554067.020216992</v>
+        <v>1686934.510268035</v>
       </c>
       <c r="AE3" t="n">
-        <v>2126343.057659057</v>
+        <v>2308138.219246856</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.443191537072406e-07</v>
+        <v>1.538166133228074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.50077160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>1923407.8605773</v>
+        <v>2087852.747094272</v>
       </c>
     </row>
     <row r="4">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1361.372002846351</v>
+        <v>1484.742862118421</v>
       </c>
       <c r="AB4" t="n">
-        <v>1862.689233788357</v>
+        <v>2031.490686182585</v>
       </c>
       <c r="AC4" t="n">
-        <v>1684.916787616355</v>
+        <v>1837.608066308404</v>
       </c>
       <c r="AD4" t="n">
-        <v>1361372.002846351</v>
+        <v>1484742.862118421</v>
       </c>
       <c r="AE4" t="n">
-        <v>1862689.233788357</v>
+        <v>2031490.686182586</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.973283381067746e-07</v>
+        <v>1.634737354946061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.93441358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>1684916.787616355</v>
+        <v>1837608.066308404</v>
       </c>
     </row>
     <row r="5">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1259.962334373768</v>
+        <v>1373.836652375417</v>
       </c>
       <c r="AB5" t="n">
-        <v>1723.936051505346</v>
+        <v>1879.743917175552</v>
       </c>
       <c r="AC5" t="n">
-        <v>1559.40601430912</v>
+        <v>1700.343795957474</v>
       </c>
       <c r="AD5" t="n">
-        <v>1259962.334373768</v>
+        <v>1373836.652375417</v>
       </c>
       <c r="AE5" t="n">
-        <v>1723936.051505346</v>
+        <v>1879743.917175552</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.226729919170553e-07</v>
+        <v>1.680909809968775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.25154320987654</v>
       </c>
       <c r="AH5" t="n">
-        <v>1559406.01430912</v>
+        <v>1700343.795957474</v>
       </c>
     </row>
     <row r="6">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1238.154968257096</v>
+        <v>1352.029286258745</v>
       </c>
       <c r="AB6" t="n">
-        <v>1694.098251111422</v>
+        <v>1849.906116781628</v>
       </c>
       <c r="AC6" t="n">
-        <v>1532.415891707176</v>
+        <v>1673.35367335553</v>
       </c>
       <c r="AD6" t="n">
-        <v>1238154.968257096</v>
+        <v>1352029.286258745</v>
       </c>
       <c r="AE6" t="n">
-        <v>1694098.251111422</v>
+        <v>1849906.116781628</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.689890722272964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.12422839506173</v>
       </c>
       <c r="AH6" t="n">
-        <v>1532415.891707176</v>
+        <v>1673353.67335553</v>
       </c>
     </row>
     <row r="7">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1245.761446128465</v>
+        <v>1359.635764130114</v>
       </c>
       <c r="AB7" t="n">
-        <v>1704.505769709149</v>
+        <v>1860.313635379355</v>
       </c>
       <c r="AC7" t="n">
-        <v>1541.83013133698</v>
+        <v>1682.767912985334</v>
       </c>
       <c r="AD7" t="n">
-        <v>1245761.446128465</v>
+        <v>1359635.764130114</v>
       </c>
       <c r="AE7" t="n">
-        <v>1704505.769709149</v>
+        <v>1860313.635379355</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.689890722272964e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.12037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1541830.13133698</v>
+        <v>1682767.912985334</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.021459058885</v>
+        <v>1315.455998139311</v>
       </c>
       <c r="AB2" t="n">
-        <v>1643.290545611623</v>
+        <v>1799.864930477022</v>
       </c>
       <c r="AC2" t="n">
-        <v>1486.457202311215</v>
+        <v>1628.08834763859</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201021.459058885</v>
+        <v>1315455.998139311</v>
       </c>
       <c r="AE2" t="n">
-        <v>1643290.545611623</v>
+        <v>1799864.930477021</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.981038852564991e-07</v>
+        <v>1.759994245610893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1486457.202311215</v>
+        <v>1628088.34763859</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1014.660886055843</v>
+        <v>1120.292775169202</v>
       </c>
       <c r="AB3" t="n">
-        <v>1388.303787980636</v>
+        <v>1532.833998815584</v>
       </c>
       <c r="AC3" t="n">
-        <v>1255.806022952367</v>
+        <v>1386.542473314653</v>
       </c>
       <c r="AD3" t="n">
-        <v>1014660.886055843</v>
+        <v>1120292.775169202</v>
       </c>
       <c r="AE3" t="n">
-        <v>1388303.787980636</v>
+        <v>1532833.998815584</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.692520477873351e-07</v>
+        <v>1.89942172020009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.06172839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>1255806.022952367</v>
+        <v>1386542.473314653</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3790.721530908173</v>
+        <v>3994.150409362475</v>
       </c>
       <c r="AB2" t="n">
-        <v>5186.632433419962</v>
+        <v>5464.972799569871</v>
       </c>
       <c r="AC2" t="n">
-        <v>4691.627513458503</v>
+        <v>4943.403465716213</v>
       </c>
       <c r="AD2" t="n">
-        <v>3790721.530908173</v>
+        <v>3994150.409362475</v>
       </c>
       <c r="AE2" t="n">
-        <v>5186632.433419961</v>
+        <v>5464972.799569871</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.179552812053887e-07</v>
+        <v>8.911323275301215e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4691627.513458503</v>
+        <v>4943403.465716213</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2371.03197888887</v>
+        <v>2533.672601019984</v>
       </c>
       <c r="AB3" t="n">
-        <v>3244.150556064368</v>
+        <v>3466.68263046202</v>
       </c>
       <c r="AC3" t="n">
-        <v>2934.533380187364</v>
+        <v>3135.827305730224</v>
       </c>
       <c r="AD3" t="n">
-        <v>2371031.97888887</v>
+        <v>2533672.601019984</v>
       </c>
       <c r="AE3" t="n">
-        <v>3244150.556064368</v>
+        <v>3466682.63046202</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.975167014569451e-07</v>
+        <v>1.200064376627102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.78009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>2934533.380187364</v>
+        <v>3135827.305730224</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2038.191616280247</v>
+        <v>2180.480914939879</v>
       </c>
       <c r="AB4" t="n">
-        <v>2788.743688062602</v>
+        <v>2983.430183849535</v>
       </c>
       <c r="AC4" t="n">
-        <v>2522.589904500255</v>
+        <v>2698.695794373496</v>
       </c>
       <c r="AD4" t="n">
-        <v>2038191.616280247</v>
+        <v>2180480.914939879</v>
       </c>
       <c r="AE4" t="n">
-        <v>2788743.688062602</v>
+        <v>2983430.183849535</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.669184018180413e-07</v>
+        <v>1.319468697852292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2522589.904500255</v>
+        <v>2698695.794373496</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1869.442472316298</v>
+        <v>2011.73168146738</v>
       </c>
       <c r="AB5" t="n">
-        <v>2557.853664604316</v>
+        <v>2752.5400379217</v>
       </c>
       <c r="AC5" t="n">
-        <v>2313.735700824645</v>
+        <v>2489.841479916659</v>
       </c>
       <c r="AD5" t="n">
-        <v>1869442.472316298</v>
+        <v>2011731.68146738</v>
       </c>
       <c r="AE5" t="n">
-        <v>2557853.664604316</v>
+        <v>2752540.0379217</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.034229424269033e-07</v>
+        <v>1.382274073950569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.85648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>2313735.700824645</v>
+        <v>2489841.479916659</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1771.667790559284</v>
+        <v>1903.781382728901</v>
       </c>
       <c r="AB6" t="n">
-        <v>2424.074031509843</v>
+        <v>2604.837676756648</v>
       </c>
       <c r="AC6" t="n">
-        <v>2192.723808151814</v>
+        <v>2356.235624799634</v>
       </c>
       <c r="AD6" t="n">
-        <v>1771667.790559284</v>
+        <v>1903781.382728901</v>
       </c>
       <c r="AE6" t="n">
-        <v>2424074.031509843</v>
+        <v>2604837.676756648</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.268439972423237e-07</v>
+        <v>1.422569558615393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.12345679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>2192723.808151814</v>
+        <v>2356235.624799634</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1691.328208442354</v>
+        <v>1823.527051957992</v>
       </c>
       <c r="AB7" t="n">
-        <v>2314.149870925243</v>
+        <v>2495.030160824698</v>
       </c>
       <c r="AC7" t="n">
-        <v>2093.29065517388</v>
+        <v>2256.907984072413</v>
       </c>
       <c r="AD7" t="n">
-        <v>1691328.208442355</v>
+        <v>1823527.051957992</v>
       </c>
       <c r="AE7" t="n">
-        <v>2314149.870925243</v>
+        <v>2495030.160824698</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.419196187327093e-07</v>
+        <v>1.448506882077808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.67206790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>2093290.65517388</v>
+        <v>2256907.984072412</v>
       </c>
     </row>
     <row r="8">
@@ -9509,28 +9509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1628.965491531464</v>
+        <v>1750.988718065636</v>
       </c>
       <c r="AB8" t="n">
-        <v>2228.822450398867</v>
+        <v>2395.780012227743</v>
       </c>
       <c r="AC8" t="n">
-        <v>2016.106763904754</v>
+        <v>2167.130130359092</v>
       </c>
       <c r="AD8" t="n">
-        <v>1628965.491531464</v>
+        <v>1750988.718065636</v>
       </c>
       <c r="AE8" t="n">
-        <v>2228822.450398867</v>
+        <v>2395780.012227742</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.539801159250177e-07</v>
+        <v>1.46925674084774e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.32484567901234</v>
       </c>
       <c r="AH8" t="n">
-        <v>2016106.763904754</v>
+        <v>2167130.130359092</v>
       </c>
     </row>
     <row r="9">
@@ -9615,28 +9615,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1570.163361151569</v>
+        <v>1692.186587685741</v>
       </c>
       <c r="AB9" t="n">
-        <v>2148.366781446188</v>
+        <v>2315.324343275064</v>
       </c>
       <c r="AC9" t="n">
-        <v>1943.329671076679</v>
+        <v>2094.353037531017</v>
       </c>
       <c r="AD9" t="n">
-        <v>1570163.361151569</v>
+        <v>1692186.587685741</v>
       </c>
       <c r="AE9" t="n">
-        <v>2148366.781446188</v>
+        <v>2315324.343275064</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.626485982819893e-07</v>
+        <v>1.484170701838629e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.07793209876543</v>
       </c>
       <c r="AH9" t="n">
-        <v>1943329.671076679</v>
+        <v>2094353.037531017</v>
       </c>
     </row>
     <row r="10">
@@ -9721,28 +9721,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1517.798093290464</v>
+        <v>1649.91159595153</v>
       </c>
       <c r="AB10" t="n">
-        <v>2076.718311766052</v>
+        <v>2257.481834543309</v>
       </c>
       <c r="AC10" t="n">
-        <v>1878.519230783556</v>
+        <v>2042.030936650149</v>
       </c>
       <c r="AD10" t="n">
-        <v>1517798.093290464</v>
+        <v>1649911.595951529</v>
       </c>
       <c r="AE10" t="n">
-        <v>2076718.311766052</v>
+        <v>2257481.834543309</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.683557978462069e-07</v>
+        <v>1.493989831435115e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1878519.230783556</v>
+        <v>2042030.936650149</v>
       </c>
     </row>
     <row r="11">
@@ -9827,28 +9827,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1504.796603035647</v>
+        <v>1636.910105696713</v>
       </c>
       <c r="AB11" t="n">
-        <v>2058.929099214143</v>
+        <v>2239.692621991401</v>
       </c>
       <c r="AC11" t="n">
-        <v>1862.427795710285</v>
+        <v>2025.939501576878</v>
       </c>
       <c r="AD11" t="n">
-        <v>1504796.603035647</v>
+        <v>1636910.105696713</v>
       </c>
       <c r="AE11" t="n">
-        <v>2058929.099214143</v>
+        <v>2239692.621991401</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.705094580591191e-07</v>
+        <v>1.497695163358317e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.86188271604938</v>
       </c>
       <c r="AH11" t="n">
-        <v>1862427.795710285</v>
+        <v>2025939.501576878</v>
       </c>
     </row>
     <row r="12">
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1510.010908858623</v>
+        <v>1642.124411519689</v>
       </c>
       <c r="AB12" t="n">
-        <v>2066.063542480077</v>
+        <v>2246.827065257334</v>
       </c>
       <c r="AC12" t="n">
-        <v>1868.881337724172</v>
+        <v>2032.393043590765</v>
       </c>
       <c r="AD12" t="n">
-        <v>1510010.908858623</v>
+        <v>1642124.411519689</v>
       </c>
       <c r="AE12" t="n">
-        <v>2066063.542480077</v>
+        <v>2246827.065257334</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.706171410697646e-07</v>
+        <v>1.497880429954477e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.85802469135803</v>
       </c>
       <c r="AH12" t="n">
-        <v>1868881.337724172</v>
+        <v>2032393.043590765</v>
       </c>
     </row>
   </sheetData>
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1002.952403645905</v>
+        <v>1114.894333577861</v>
       </c>
       <c r="AB2" t="n">
-        <v>1372.28372580557</v>
+        <v>1525.447612867877</v>
       </c>
       <c r="AC2" t="n">
-        <v>1241.314893026992</v>
+        <v>1379.861033674937</v>
       </c>
       <c r="AD2" t="n">
-        <v>1002952.403645905</v>
+        <v>1114894.333577861</v>
       </c>
       <c r="AE2" t="n">
-        <v>1372283.72580557</v>
+        <v>1525447.612867877</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540270361044708e-07</v>
+        <v>1.912500197489619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.0570987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>1241314.893026992</v>
+        <v>1379861.033674937</v>
       </c>
     </row>
     <row r="3">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.7498786697024</v>
+        <v>1072.777059947679</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.54036928913</v>
+        <v>1467.820901004086</v>
       </c>
       <c r="AC3" t="n">
-        <v>1189.082481413171</v>
+        <v>1327.734134311829</v>
       </c>
       <c r="AD3" t="n">
-        <v>960749.8786697024</v>
+        <v>1072777.059947679</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314540.36928913</v>
+        <v>1467820.901004086</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.730998446068971e-07</v>
+        <v>1.95073470096503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.54783950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>1189082.481413171</v>
+        <v>1327734.134311829</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2779.081020552965</v>
+        <v>2955.566959750042</v>
       </c>
       <c r="AB2" t="n">
-        <v>3802.461256722427</v>
+        <v>4043.93710474201</v>
       </c>
       <c r="AC2" t="n">
-        <v>3439.559691168587</v>
+        <v>3657.989423166653</v>
       </c>
       <c r="AD2" t="n">
-        <v>2779081.020552965</v>
+        <v>2955566.959750042</v>
       </c>
       <c r="AE2" t="n">
-        <v>3802461.256722427</v>
+        <v>4043937.10474201</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.13835724684155e-07</v>
+        <v>1.08714868064537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.18132716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>3439559.691168587</v>
+        <v>3657989.423166653</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1896.074291604426</v>
+        <v>2043.117386060007</v>
       </c>
       <c r="AB3" t="n">
-        <v>2594.292494667278</v>
+        <v>2795.483343584895</v>
       </c>
       <c r="AC3" t="n">
-        <v>2346.696860088617</v>
+        <v>2528.686336758667</v>
       </c>
       <c r="AD3" t="n">
-        <v>1896074.291604426</v>
+        <v>2043117.386060007</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594292.494667278</v>
+        <v>2795483.343584896</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.752712736527035e-07</v>
+        <v>1.373063033643843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.85493827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>2346696.860088617</v>
+        <v>2528686.336758667</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1655.06628859849</v>
+        <v>1792.295131309756</v>
       </c>
       <c r="AB4" t="n">
-        <v>2264.534712431869</v>
+        <v>2452.297269138686</v>
       </c>
       <c r="AC4" t="n">
-        <v>2048.410697771802</v>
+        <v>2218.253459592924</v>
       </c>
       <c r="AD4" t="n">
-        <v>1655066.288598489</v>
+        <v>1792295.131309756</v>
       </c>
       <c r="AE4" t="n">
-        <v>2264534.712431869</v>
+        <v>2452297.269138686</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.357816163832863e-07</v>
+        <v>1.480231346955683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.83719135802469</v>
       </c>
       <c r="AH4" t="n">
-        <v>2048410.697771802</v>
+        <v>2218253.459592924</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1525.213936287294</v>
+        <v>1652.713868108817</v>
       </c>
       <c r="AB5" t="n">
-        <v>2086.864995318218</v>
+        <v>2261.316026936432</v>
       </c>
       <c r="AC5" t="n">
-        <v>1887.697529098463</v>
+        <v>2045.499199102595</v>
       </c>
       <c r="AD5" t="n">
-        <v>1525213.936287294</v>
+        <v>1652713.868108817</v>
       </c>
       <c r="AE5" t="n">
-        <v>2086864.995318218</v>
+        <v>2261316.026936432</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.676321113080796e-07</v>
+        <v>1.536640940179029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.88811728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>1887697.529098463</v>
+        <v>2045499.199102595</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1440.271994756988</v>
+        <v>1557.957764342746</v>
       </c>
       <c r="AB6" t="n">
-        <v>1970.643683542469</v>
+        <v>2131.66654541943</v>
       </c>
       <c r="AC6" t="n">
-        <v>1782.568216200956</v>
+        <v>1928.223282137386</v>
       </c>
       <c r="AD6" t="n">
-        <v>1440271.994756988</v>
+        <v>1557957.764342746</v>
       </c>
       <c r="AE6" t="n">
-        <v>1970643.683542469</v>
+        <v>2131666.54541943</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.863841601653832e-07</v>
+        <v>1.569852212111931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.36342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1782568.216200956</v>
+        <v>1928223.282137386</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1375.779716931871</v>
+        <v>1493.46548651763</v>
       </c>
       <c r="AB7" t="n">
-        <v>1882.402503823651</v>
+        <v>2043.425365700612</v>
       </c>
       <c r="AC7" t="n">
-        <v>1702.748650827229</v>
+        <v>1848.403716763659</v>
       </c>
       <c r="AD7" t="n">
-        <v>1375779.716931871</v>
+        <v>1493465.48651763</v>
       </c>
       <c r="AE7" t="n">
-        <v>1882402.503823651</v>
+        <v>2043425.365700612</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.987549147846792e-07</v>
+        <v>1.591761737775129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.02777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1702748.650827229</v>
+        <v>1848403.716763659</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1351.332675259429</v>
+        <v>1478.74726622638</v>
       </c>
       <c r="AB8" t="n">
-        <v>1848.952982880055</v>
+        <v>2023.287247376071</v>
       </c>
       <c r="AC8" t="n">
-        <v>1672.491505215792</v>
+        <v>1830.187552187985</v>
       </c>
       <c r="AD8" t="n">
-        <v>1351332.675259429</v>
+        <v>1478747.26622638</v>
       </c>
       <c r="AE8" t="n">
-        <v>1848952.982880055</v>
+        <v>2023287.247376071</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.013298229859806e-07</v>
+        <v>1.596322091533079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.96219135802469</v>
       </c>
       <c r="AH8" t="n">
-        <v>1672491.505215792</v>
+        <v>1830187.552187985</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1357.209503351762</v>
+        <v>1484.624094318713</v>
       </c>
       <c r="AB9" t="n">
-        <v>1856.993918343343</v>
+        <v>2031.328182839359</v>
       </c>
       <c r="AC9" t="n">
-        <v>1679.765025083987</v>
+        <v>1837.46107205618</v>
       </c>
       <c r="AD9" t="n">
-        <v>1357209.503351762</v>
+        <v>1484624.094318713</v>
       </c>
       <c r="AE9" t="n">
-        <v>1856993.918343343</v>
+        <v>2031328.182839359</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.012178704554892e-07</v>
+        <v>1.596123815282734e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.96219135802469</v>
       </c>
       <c r="AH9" t="n">
-        <v>1679765.025083987</v>
+        <v>1837461.07205618</v>
       </c>
     </row>
   </sheetData>
@@ -11672,28 +11672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3249.337191350363</v>
+        <v>3439.378833533051</v>
       </c>
       <c r="AB2" t="n">
-        <v>4445.886495845522</v>
+        <v>4705.909854725428</v>
       </c>
       <c r="AC2" t="n">
-        <v>4021.577328522746</v>
+        <v>4256.784422976219</v>
       </c>
       <c r="AD2" t="n">
-        <v>3249337.191350363</v>
+        <v>3439378.83353305</v>
       </c>
       <c r="AE2" t="n">
-        <v>4445886.495845523</v>
+        <v>4705909.854725428</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.639223340672859e-07</v>
+        <v>9.834313093638161e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.52314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4021577.328522746</v>
+        <v>4256784.422976218</v>
       </c>
     </row>
     <row r="3">
@@ -11778,28 +11778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2122.994412230182</v>
+        <v>2272.941946782998</v>
       </c>
       <c r="AB3" t="n">
-        <v>2904.774614716618</v>
+        <v>3109.939446710304</v>
       </c>
       <c r="AC3" t="n">
-        <v>2627.54700236484</v>
+        <v>2813.131190743582</v>
       </c>
       <c r="AD3" t="n">
-        <v>2122994.412230182</v>
+        <v>2272941.946782998</v>
       </c>
       <c r="AE3" t="n">
-        <v>2904774.614716618</v>
+        <v>3109939.446710304</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.360277886775896e-07</v>
+        <v>1.283568194092824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>2627547.00236484</v>
+        <v>2813131.190743582</v>
       </c>
     </row>
     <row r="4">
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1847.435952356696</v>
+        <v>1987.210703015091</v>
       </c>
       <c r="AB4" t="n">
-        <v>2527.743373136448</v>
+        <v>2718.989353414058</v>
       </c>
       <c r="AC4" t="n">
-        <v>2286.499093314411</v>
+        <v>2459.492825649745</v>
       </c>
       <c r="AD4" t="n">
-        <v>1847435.952356696</v>
+        <v>1987210.703015091</v>
       </c>
       <c r="AE4" t="n">
-        <v>2527743.373136448</v>
+        <v>2718989.353414058</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.997035161481322e-07</v>
+        <v>1.39461310268759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2286499.093314411</v>
+        <v>2459492.825649745</v>
       </c>
     </row>
     <row r="5">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1705.088706491281</v>
+        <v>1834.946606310423</v>
       </c>
       <c r="AB5" t="n">
-        <v>2332.977591426114</v>
+        <v>2510.654898884876</v>
       </c>
       <c r="AC5" t="n">
-        <v>2110.32148445502</v>
+        <v>2271.041519061584</v>
       </c>
       <c r="AD5" t="n">
-        <v>1705088.706491281</v>
+        <v>1834946.606310423</v>
       </c>
       <c r="AE5" t="n">
-        <v>2332977.591426114</v>
+        <v>2510654.898884876</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.339271629540053e-07</v>
+        <v>1.454296154335424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.37422839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>2110321.48445502</v>
+        <v>2271041.519061584</v>
       </c>
     </row>
     <row r="6">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1607.124589644673</v>
+        <v>1737.067740809834</v>
       </c>
       <c r="AB6" t="n">
-        <v>2198.938764884771</v>
+        <v>2376.732716996182</v>
       </c>
       <c r="AC6" t="n">
-        <v>1989.075135394108</v>
+        <v>2149.900682251385</v>
       </c>
       <c r="AD6" t="n">
-        <v>1607124.589644673</v>
+        <v>1737067.740809834</v>
       </c>
       <c r="AE6" t="n">
-        <v>2198938.764884771</v>
+        <v>2376732.716996182</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.548233319172065e-07</v>
+        <v>1.490737248370398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.75308641975309</v>
       </c>
       <c r="AH6" t="n">
-        <v>1989075.135394108</v>
+        <v>2149900.682251385</v>
       </c>
     </row>
     <row r="7">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1531.069774766415</v>
+        <v>1651.010823746302</v>
       </c>
       <c r="AB7" t="n">
-        <v>2094.877211866712</v>
+        <v>2258.985846506625</v>
       </c>
       <c r="AC7" t="n">
-        <v>1894.945070944786</v>
+        <v>2043.39140782258</v>
       </c>
       <c r="AD7" t="n">
-        <v>1531069.774766415</v>
+        <v>1651010.823746302</v>
       </c>
       <c r="AE7" t="n">
-        <v>2094877.211866712</v>
+        <v>2258985.846506624</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.706188612122249e-07</v>
+        <v>1.51828327220786e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.30555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1894945.070944786</v>
+        <v>2043391.40782258</v>
       </c>
     </row>
     <row r="8">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1471.202193222337</v>
+        <v>1591.143242202224</v>
       </c>
       <c r="AB8" t="n">
-        <v>2012.963745626811</v>
+        <v>2177.072380266723</v>
       </c>
       <c r="AC8" t="n">
-        <v>1820.849310956548</v>
+        <v>1969.295647834343</v>
       </c>
       <c r="AD8" t="n">
-        <v>1471202.193222336</v>
+        <v>1591143.242202224</v>
       </c>
       <c r="AE8" t="n">
-        <v>2012963.745626811</v>
+        <v>2177072.380266723</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.799426111433122e-07</v>
+        <v>1.534543077945251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.04706790123457</v>
       </c>
       <c r="AH8" t="n">
-        <v>1820849.310956548</v>
+        <v>1969295.647834343</v>
       </c>
     </row>
     <row r="9">
@@ -12414,28 +12414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1426.611780161939</v>
+        <v>1556.469590472529</v>
       </c>
       <c r="AB9" t="n">
-        <v>1951.953175287388</v>
+        <v>2129.6303602766</v>
       </c>
       <c r="AC9" t="n">
-        <v>1765.661503821446</v>
+        <v>1926.381427646785</v>
       </c>
       <c r="AD9" t="n">
-        <v>1426611.780161939</v>
+        <v>1556469.590472529</v>
       </c>
       <c r="AE9" t="n">
-        <v>1951953.175287388</v>
+        <v>2129630.3602766</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.854271699263047e-07</v>
+        <v>1.544107669555481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.8966049382716</v>
       </c>
       <c r="AH9" t="n">
-        <v>1765661.503821446</v>
+        <v>1926381.427646785</v>
       </c>
     </row>
     <row r="10">
@@ -12520,28 +12520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1433.227872915984</v>
+        <v>1563.085683226574</v>
       </c>
       <c r="AB10" t="n">
-        <v>1961.005605274885</v>
+        <v>2138.682790264098</v>
       </c>
       <c r="AC10" t="n">
-        <v>1773.849982596103</v>
+        <v>1934.56990642144</v>
       </c>
       <c r="AD10" t="n">
-        <v>1433227.872915984</v>
+        <v>1563085.683226574</v>
       </c>
       <c r="AE10" t="n">
-        <v>1961005.605274885</v>
+        <v>2138682.790264098</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.849335596358352e-07</v>
+        <v>1.543246856310559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.91203703703703</v>
       </c>
       <c r="AH10" t="n">
-        <v>1773849.982596103</v>
+        <v>1934569.90642144</v>
       </c>
     </row>
   </sheetData>
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4392.484137836305</v>
+        <v>4629.988897721127</v>
       </c>
       <c r="AB2" t="n">
-        <v>6009.990580111638</v>
+        <v>6334.955070556577</v>
       </c>
       <c r="AC2" t="n">
-        <v>5436.405514220314</v>
+        <v>5730.355849787701</v>
       </c>
       <c r="AD2" t="n">
-        <v>4392484.137836305</v>
+        <v>4629988.897721127</v>
       </c>
       <c r="AE2" t="n">
-        <v>6009990.580111639</v>
+        <v>6334955.070556577</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.757558534782902e-07</v>
+        <v>8.08753419537949e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.92824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>5436405.514220314</v>
+        <v>5730355.849787701</v>
       </c>
     </row>
     <row r="3">
@@ -12923,28 +12923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2621.991267973438</v>
+        <v>2787.304732300456</v>
       </c>
       <c r="AB3" t="n">
-        <v>3587.524126932338</v>
+        <v>3813.713301939902</v>
       </c>
       <c r="AC3" t="n">
-        <v>3245.135859379516</v>
+        <v>3449.73785698285</v>
       </c>
       <c r="AD3" t="n">
-        <v>2621991.267973438</v>
+        <v>2787304.732300456</v>
       </c>
       <c r="AE3" t="n">
-        <v>3587524.126932338</v>
+        <v>3813713.301939901</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.629983653012248e-07</v>
+        <v>1.127053279881303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.80632716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>3245135.859379516</v>
+        <v>3449737.85698285</v>
       </c>
     </row>
     <row r="4">
@@ -13029,28 +13029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2225.545854197519</v>
+        <v>2380.436552346116</v>
       </c>
       <c r="AB4" t="n">
-        <v>3045.090021866817</v>
+        <v>3257.018308369072</v>
       </c>
       <c r="AC4" t="n">
-        <v>2754.47090399042</v>
+        <v>2946.173052272111</v>
       </c>
       <c r="AD4" t="n">
-        <v>2225545.854197519</v>
+        <v>2380436.552346116</v>
       </c>
       <c r="AE4" t="n">
-        <v>3045090.021866817</v>
+        <v>3257018.308369072</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.360001814742038e-07</v>
+        <v>1.251151529079349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.75077160493828</v>
       </c>
       <c r="AH4" t="n">
-        <v>2754470.90399042</v>
+        <v>2946173.052272111</v>
       </c>
     </row>
     <row r="5">
@@ -13135,28 +13135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2042.300270230223</v>
+        <v>2176.601548094244</v>
       </c>
       <c r="AB5" t="n">
-        <v>2794.36532965798</v>
+        <v>2978.12226298575</v>
       </c>
       <c r="AC5" t="n">
-        <v>2527.675024511794</v>
+        <v>2693.894454027238</v>
       </c>
       <c r="AD5" t="n">
-        <v>2042300.270230223</v>
+        <v>2176601.548094244</v>
       </c>
       <c r="AE5" t="n">
-        <v>2794365.32965798</v>
+        <v>2978122.26298575</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.754920994329002e-07</v>
+        <v>1.31828517222782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.33487654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>2527675.024511794</v>
+        <v>2693894.454027238</v>
       </c>
     </row>
     <row r="6">
@@ -13241,28 +13241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1926.603295236231</v>
+        <v>2060.989824446272</v>
       </c>
       <c r="AB6" t="n">
-        <v>2636.063624280898</v>
+        <v>2819.937202261318</v>
       </c>
       <c r="AC6" t="n">
-        <v>2384.481411718062</v>
+        <v>2550.806353484218</v>
       </c>
       <c r="AD6" t="n">
-        <v>1926603.295236231</v>
+        <v>2060989.824446272</v>
       </c>
       <c r="AE6" t="n">
-        <v>2636063.624280898</v>
+        <v>2819937.202261318</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.995789930940353e-07</v>
+        <v>1.359231295059662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.54398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>2384481.411718062</v>
+        <v>2550806.353484218</v>
       </c>
     </row>
     <row r="7">
@@ -13347,28 +13347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1837.863226550512</v>
+        <v>1972.164414905982</v>
       </c>
       <c r="AB7" t="n">
-        <v>2514.64554736957</v>
+        <v>2698.402358227792</v>
       </c>
       <c r="AC7" t="n">
-        <v>2274.65130565581</v>
+        <v>2440.870624390026</v>
       </c>
       <c r="AD7" t="n">
-        <v>1837863.226550512</v>
+        <v>1972164.414905982</v>
       </c>
       <c r="AE7" t="n">
-        <v>2514645.54736957</v>
+        <v>2698402.358227792</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.1699567004901e-07</v>
+        <v>1.38883849156884e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>2274651.30565581</v>
+        <v>2440870.624390027</v>
       </c>
     </row>
     <row r="8">
@@ -13453,28 +13453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1774.923251632046</v>
+        <v>1909.224439987515</v>
       </c>
       <c r="AB8" t="n">
-        <v>2428.528296970401</v>
+        <v>2612.285107828623</v>
       </c>
       <c r="AC8" t="n">
-        <v>2196.752964768418</v>
+        <v>2362.972283502635</v>
       </c>
       <c r="AD8" t="n">
-        <v>1774923.251632045</v>
+        <v>1909224.439987515</v>
       </c>
       <c r="AE8" t="n">
-        <v>2428528.296970401</v>
+        <v>2612285.107828624</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.295949682717576e-07</v>
+        <v>1.41025646351165e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.61805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2196752.964768418</v>
+        <v>2362972.283502635</v>
       </c>
     </row>
     <row r="9">
@@ -13559,28 +13559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1719.861850701411</v>
+        <v>1843.825703241583</v>
       </c>
       <c r="AB9" t="n">
-        <v>2353.190859079538</v>
+        <v>2522.8036710242</v>
       </c>
       <c r="AC9" t="n">
-        <v>2128.6056262131</v>
+        <v>2282.03082943884</v>
       </c>
       <c r="AD9" t="n">
-        <v>1719861.850701411</v>
+        <v>1843825.703241583</v>
       </c>
       <c r="AE9" t="n">
-        <v>2353190.859079538</v>
+        <v>2522803.6710242</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.392297257362117e-07</v>
+        <v>1.426634912644387e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.33641975308642</v>
       </c>
       <c r="AH9" t="n">
-        <v>2128605.6262131</v>
+        <v>2282030.82943884</v>
       </c>
     </row>
     <row r="10">
@@ -13665,28 +13665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1678.294717768372</v>
+        <v>1802.258570308544</v>
       </c>
       <c r="AB10" t="n">
-        <v>2296.316873988073</v>
+        <v>2465.929685932735</v>
       </c>
       <c r="AC10" t="n">
-        <v>2077.159614435625</v>
+        <v>2230.584817661365</v>
       </c>
       <c r="AD10" t="n">
-        <v>1678294.717768372</v>
+        <v>1802258.570308544</v>
       </c>
       <c r="AE10" t="n">
-        <v>2296316.873988073</v>
+        <v>2465929.685932735</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.459528806701989e-07</v>
+        <v>1.438063830445802e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>2077159.614435625</v>
+        <v>2230584.817661365</v>
       </c>
     </row>
     <row r="11">
@@ -13771,28 +13771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1617.530247767839</v>
+        <v>1751.746095268737</v>
       </c>
       <c r="AB11" t="n">
-        <v>2213.176245394125</v>
+        <v>2396.816289130149</v>
       </c>
       <c r="AC11" t="n">
-        <v>2001.953810746078</v>
+        <v>2168.067506448357</v>
       </c>
       <c r="AD11" t="n">
-        <v>1617530.247767839</v>
+        <v>1751746.095268738</v>
       </c>
       <c r="AE11" t="n">
-        <v>2213176.245394125</v>
+        <v>2396816.289130149</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.523584062372262e-07</v>
+        <v>1.44895279937471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.96219135802469</v>
       </c>
       <c r="AH11" t="n">
-        <v>2001953.810746078</v>
+        <v>2168067.506448357</v>
       </c>
     </row>
     <row r="12">
@@ -13877,28 +13877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1587.014837666833</v>
+        <v>1721.230685167732</v>
       </c>
       <c r="AB12" t="n">
-        <v>2171.423715049048</v>
+        <v>2355.063758785073</v>
       </c>
       <c r="AC12" t="n">
-        <v>1964.186083297091</v>
+        <v>2130.29977899937</v>
       </c>
       <c r="AD12" t="n">
-        <v>1587014.837666833</v>
+        <v>1721230.685167732</v>
       </c>
       <c r="AE12" t="n">
-        <v>2171423.715049048</v>
+        <v>2355063.758785073</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.555346999068264e-07</v>
+        <v>1.454352288099788e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.87345679012346</v>
       </c>
       <c r="AH12" t="n">
-        <v>1964186.083297091</v>
+        <v>2130299.77899937</v>
       </c>
     </row>
     <row r="13">
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1577.803759619846</v>
+        <v>1712.019607120745</v>
       </c>
       <c r="AB13" t="n">
-        <v>2158.820711701078</v>
+        <v>2342.460755437102</v>
       </c>
       <c r="AC13" t="n">
-        <v>1952.785892900225</v>
+        <v>2118.899588602503</v>
       </c>
       <c r="AD13" t="n">
-        <v>1577803.759619846</v>
+        <v>1712019.607120745</v>
       </c>
       <c r="AE13" t="n">
-        <v>2158820.711701078</v>
+        <v>2342460.755437102</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.576522290198931e-07</v>
+        <v>1.45795194724984e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.81172839506173</v>
       </c>
       <c r="AH13" t="n">
-        <v>1952785.892900225</v>
+        <v>2118899.588602503</v>
       </c>
     </row>
     <row r="14">
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1584.768320352268</v>
+        <v>1718.984167853167</v>
       </c>
       <c r="AB14" t="n">
-        <v>2168.349930949912</v>
+        <v>2351.989974685936</v>
       </c>
       <c r="AC14" t="n">
-        <v>1961.405656838293</v>
+        <v>2127.519352540572</v>
       </c>
       <c r="AD14" t="n">
-        <v>1584768.320352268</v>
+        <v>1718984.167853167</v>
       </c>
       <c r="AE14" t="n">
-        <v>2168349.930949911</v>
+        <v>2351989.974685936</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.575992907920666e-07</v>
+        <v>1.457861955771089e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.81558641975309</v>
       </c>
       <c r="AH14" t="n">
-        <v>1961405.656838293</v>
+        <v>2127519.352540572</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338.87060520217</v>
+        <v>2502.123752487216</v>
       </c>
       <c r="AB2" t="n">
-        <v>3200.145945726554</v>
+        <v>3423.516104062518</v>
       </c>
       <c r="AC2" t="n">
-        <v>2894.728508099334</v>
+        <v>3096.780532025692</v>
       </c>
       <c r="AD2" t="n">
-        <v>2338870.60520217</v>
+        <v>2502123.752487216</v>
       </c>
       <c r="AE2" t="n">
-        <v>3200145.945726554</v>
+        <v>3423516.104062518</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.700141859432167e-07</v>
+        <v>1.208194129374033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.9783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>2894728.508099334</v>
+        <v>3096780.532025692</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1665.21259863898</v>
+        <v>1799.641306840564</v>
       </c>
       <c r="AB3" t="n">
-        <v>2278.417341452876</v>
+        <v>2462.34863059033</v>
       </c>
       <c r="AC3" t="n">
-        <v>2060.968388163436</v>
+        <v>2227.345533214797</v>
       </c>
       <c r="AD3" t="n">
-        <v>1665212.59863898</v>
+        <v>1799641.306840564</v>
       </c>
       <c r="AE3" t="n">
-        <v>2278417.341452876</v>
+        <v>2462348.63059033</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198925622671244e-07</v>
+        <v>1.47846030909639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9483024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>2060968.388163436</v>
+        <v>2227345.533214797</v>
       </c>
     </row>
     <row r="4">
@@ -14598,28 +14598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1469.138185032482</v>
+        <v>1593.873495526892</v>
       </c>
       <c r="AB4" t="n">
-        <v>2010.139678563837</v>
+        <v>2180.80803331581</v>
       </c>
       <c r="AC4" t="n">
-        <v>1818.294768890462</v>
+        <v>1972.674775399446</v>
       </c>
       <c r="AD4" t="n">
-        <v>1469138.185032482</v>
+        <v>1593873.495526892</v>
       </c>
       <c r="AE4" t="n">
-        <v>2010139.678563837</v>
+        <v>2180808.033315809</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.750445975746992e-07</v>
+        <v>1.577912479930409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.25077160493827</v>
       </c>
       <c r="AH4" t="n">
-        <v>1818294.768890462</v>
+        <v>1972674.775399446</v>
       </c>
     </row>
     <row r="5">
@@ -14704,28 +14704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1348.499428247861</v>
+        <v>1473.149397887699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1845.076409324791</v>
+        <v>2015.627996954566</v>
       </c>
       <c r="AC5" t="n">
-        <v>1668.984906399837</v>
+        <v>1823.259289876883</v>
       </c>
       <c r="AD5" t="n">
-        <v>1348499.428247861</v>
+        <v>1473149.397887699</v>
       </c>
       <c r="AE5" t="n">
-        <v>1845076.409324791</v>
+        <v>2015627.996954566</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.037374009901666e-07</v>
+        <v>1.629652394351846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4483024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>1668984.906399837</v>
+        <v>1823259.289876883</v>
       </c>
     </row>
     <row r="6">
@@ -14810,28 +14810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1285.862366915241</v>
+        <v>1401.074871903068</v>
       </c>
       <c r="AB6" t="n">
-        <v>1759.373618657382</v>
+        <v>1917.01245079872</v>
       </c>
       <c r="AC6" t="n">
-        <v>1591.461469789104</v>
+        <v>1734.055473038363</v>
       </c>
       <c r="AD6" t="n">
-        <v>1285862.366915241</v>
+        <v>1401074.871903068</v>
       </c>
       <c r="AE6" t="n">
-        <v>1759373.618657382</v>
+        <v>1917012.45079872</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.171388301303248e-07</v>
+        <v>1.653818342404972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.08950617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>1591461.469789104</v>
+        <v>1734055.473038363</v>
       </c>
     </row>
     <row r="7">
@@ -14916,28 +14916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1286.578474097418</v>
+        <v>1401.790979085246</v>
       </c>
       <c r="AB7" t="n">
-        <v>1760.353428096457</v>
+        <v>1917.992260237795</v>
       </c>
       <c r="AC7" t="n">
-        <v>1592.347767590484</v>
+        <v>1734.941770839743</v>
       </c>
       <c r="AD7" t="n">
-        <v>1286578.474097418</v>
+        <v>1401790.979085246</v>
       </c>
       <c r="AE7" t="n">
-        <v>1760353.428096457</v>
+        <v>1917992.260237795</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.178260829067434e-07</v>
+        <v>1.655057621792312e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.07407407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>1592347.767590484</v>
+        <v>1734941.770839743</v>
       </c>
     </row>
   </sheetData>
@@ -15213,28 +15213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1755.701063994419</v>
+        <v>1903.557910276896</v>
       </c>
       <c r="AB2" t="n">
-        <v>2402.227651821533</v>
+        <v>2604.531911888906</v>
       </c>
       <c r="AC2" t="n">
-        <v>2172.962416279369</v>
+        <v>2355.959041701725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1755701.063994419</v>
+        <v>1903557.910276896</v>
       </c>
       <c r="AE2" t="n">
-        <v>2402227.651821533</v>
+        <v>2604531.911888906</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.681495166129559e-07</v>
+        <v>1.433121464585177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.96141975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>2172962.416279369</v>
+        <v>2355959.041701725</v>
       </c>
     </row>
     <row r="3">
@@ -15319,28 +15319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1317.573991690123</v>
+        <v>1437.846358183314</v>
       </c>
       <c r="AB3" t="n">
-        <v>1802.762862692523</v>
+        <v>1967.324820570835</v>
       </c>
       <c r="AC3" t="n">
-        <v>1630.709705270717</v>
+        <v>1779.566100853281</v>
       </c>
       <c r="AD3" t="n">
-        <v>1317573.991690123</v>
+        <v>1437846.358183314</v>
       </c>
       <c r="AE3" t="n">
-        <v>1802762.862692523</v>
+        <v>1967324.820570835</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.978448450625183e-07</v>
+        <v>1.675091491302183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.63657407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1630709.705270717</v>
+        <v>1779566.100853281</v>
       </c>
     </row>
     <row r="4">
@@ -15425,28 +15425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.910541319164</v>
+        <v>1285.926974757192</v>
       </c>
       <c r="AB4" t="n">
-        <v>1595.250238975769</v>
+        <v>1759.462017957036</v>
       </c>
       <c r="AC4" t="n">
-        <v>1443.001795115693</v>
+        <v>1591.541432383668</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165910.541319164</v>
+        <v>1285926.974757191</v>
       </c>
       <c r="AE4" t="n">
-        <v>1595250.238975768</v>
+        <v>1759462.017957036</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.411561644987566e-07</v>
+        <v>1.755896569221477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.45601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1443001.795115693</v>
+        <v>1591541.432383668</v>
       </c>
     </row>
     <row r="5">
@@ -15531,28 +15531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1158.570933681993</v>
+        <v>1269.506328329687</v>
       </c>
       <c r="AB5" t="n">
-        <v>1585.207864005955</v>
+        <v>1736.994565087132</v>
       </c>
       <c r="AC5" t="n">
-        <v>1433.917850318436</v>
+        <v>1571.218241682399</v>
       </c>
       <c r="AD5" t="n">
-        <v>1158570.933681993</v>
+        <v>1269506.328329687</v>
       </c>
       <c r="AE5" t="n">
-        <v>1585207.864005955</v>
+        <v>1736994.565087132</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.76301988187552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.35570987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>1433917.850318436</v>
+        <v>1571218.241682399</v>
       </c>
     </row>
   </sheetData>
@@ -28441,28 +28441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1392.049257325223</v>
+        <v>1517.4995230301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1904.6632067513</v>
+        <v>2076.309794763833</v>
       </c>
       <c r="AC2" t="n">
-        <v>1722.884823510556</v>
+        <v>1878.149702070671</v>
       </c>
       <c r="AD2" t="n">
-        <v>1392049.257325223</v>
+        <v>1517499.5230301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1904663.2067513</v>
+        <v>2076309.794763832</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.496015030832002e-07</v>
+        <v>1.633815196717883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.02469135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>1722884.823510556</v>
+        <v>1878149.702070671</v>
       </c>
     </row>
     <row r="3">
@@ -28547,28 +28547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.132986034724</v>
+        <v>1186.616339584558</v>
       </c>
       <c r="AB3" t="n">
-        <v>1464.203162428073</v>
+        <v>1623.58082563783</v>
       </c>
       <c r="AC3" t="n">
-        <v>1324.461667627982</v>
+        <v>1468.628550348955</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070132.986034724</v>
+        <v>1186616.339584558</v>
       </c>
       <c r="AE3" t="n">
-        <v>1464203.162428073</v>
+        <v>1623580.825637829</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.580310695041476e-07</v>
+        <v>1.842329273904876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.84953703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>1324461.667627982</v>
+        <v>1468628.550348955</v>
       </c>
     </row>
     <row r="4">
@@ -28653,28 +28653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1063.07892770878</v>
+        <v>1179.562281258613</v>
       </c>
       <c r="AB4" t="n">
-        <v>1454.551488623427</v>
+        <v>1613.929151833183</v>
       </c>
       <c r="AC4" t="n">
-        <v>1315.731136025042</v>
+        <v>1459.898018746015</v>
       </c>
       <c r="AD4" t="n">
-        <v>1063078.92770878</v>
+        <v>1179562.281258613</v>
       </c>
       <c r="AE4" t="n">
-        <v>1454551.488623427</v>
+        <v>1613929.151833183</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.624743983500829e-07</v>
+        <v>1.850873960050273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.73765432098766</v>
       </c>
       <c r="AH4" t="n">
-        <v>1315731.136025042</v>
+        <v>1459898.018746015</v>
       </c>
     </row>
   </sheetData>
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>893.8593015903967</v>
+        <v>1011.23230303667</v>
       </c>
       <c r="AB2" t="n">
-        <v>1223.017730725235</v>
+        <v>1383.612649435395</v>
       </c>
       <c r="AC2" t="n">
-        <v>1106.294635020984</v>
+        <v>1251.562600085831</v>
       </c>
       <c r="AD2" t="n">
-        <v>893859.3015903968</v>
+        <v>1011232.30303667</v>
       </c>
       <c r="AE2" t="n">
-        <v>1223017.730725235</v>
+        <v>1383612.649435395</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.676529438577423e-07</v>
+        <v>1.995880305315639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.40817901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>1106294.635020984</v>
+        <v>1251562.600085831</v>
       </c>
     </row>
     <row r="3">
@@ -29056,28 +29056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>903.9565921091981</v>
+        <v>1021.329593555471</v>
       </c>
       <c r="AB3" t="n">
-        <v>1236.833289074078</v>
+        <v>1397.428207784238</v>
       </c>
       <c r="AC3" t="n">
-        <v>1118.791655871271</v>
+        <v>1264.059620936117</v>
       </c>
       <c r="AD3" t="n">
-        <v>903956.5921091981</v>
+        <v>1021329.593555471</v>
       </c>
       <c r="AE3" t="n">
-        <v>1236833.289074078</v>
+        <v>1397428.207784238</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.675204703217224e-07</v>
+        <v>1.995607065490146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>1118791.655871271</v>
+        <v>1264059.620936117</v>
       </c>
     </row>
   </sheetData>
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3009.385029349471</v>
+        <v>3197.423389727867</v>
       </c>
       <c r="AB2" t="n">
-        <v>4117.573361853614</v>
+        <v>4374.855742190332</v>
       </c>
       <c r="AC2" t="n">
-        <v>3724.597939248659</v>
+        <v>3957.32565030412</v>
       </c>
       <c r="AD2" t="n">
-        <v>3009385.029349471</v>
+        <v>3197423.389727867</v>
       </c>
       <c r="AE2" t="n">
-        <v>4117573.361853614</v>
+        <v>4374855.742190332</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881085910805122e-07</v>
+        <v>1.033283594952656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.33873456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>3724597.939248659</v>
+        <v>3957325.65030412</v>
       </c>
     </row>
     <row r="3">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2014.846733773171</v>
+        <v>2153.504646009773</v>
       </c>
       <c r="AB3" t="n">
-        <v>2756.802189912892</v>
+        <v>2946.520062590372</v>
       </c>
       <c r="AC3" t="n">
-        <v>2493.696858103779</v>
+        <v>2665.308323283627</v>
       </c>
       <c r="AD3" t="n">
-        <v>2014846.733773171</v>
+        <v>2153504.646009773</v>
       </c>
       <c r="AE3" t="n">
-        <v>2756802.189912892</v>
+        <v>2946520.062590372</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.550634082149818e-07</v>
+        <v>1.326616622661736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.30246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>2493696.858103779</v>
+        <v>2665308.323283628</v>
       </c>
     </row>
     <row r="4">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1757.488285432325</v>
+        <v>1886.235971698741</v>
       </c>
       <c r="AB4" t="n">
-        <v>2404.673007039521</v>
+        <v>2580.831271336277</v>
       </c>
       <c r="AC4" t="n">
-        <v>2175.174390227431</v>
+        <v>2334.520357019382</v>
       </c>
       <c r="AD4" t="n">
-        <v>1757488.285432325</v>
+        <v>1886235.97169874</v>
       </c>
       <c r="AE4" t="n">
-        <v>2404673.00703952</v>
+        <v>2580831.271336277</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.17048292214143e-07</v>
+        <v>1.435521618682459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.1574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>2175174.390227431</v>
+        <v>2334520.357019382</v>
       </c>
     </row>
     <row r="5">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1624.398054004678</v>
+        <v>1753.060399416522</v>
       </c>
       <c r="AB5" t="n">
-        <v>2222.573080873595</v>
+        <v>2398.614578048154</v>
       </c>
       <c r="AC5" t="n">
-        <v>2010.453825435929</v>
+        <v>2169.694169195942</v>
       </c>
       <c r="AD5" t="n">
-        <v>1624398.054004678</v>
+        <v>1753060.399416522</v>
       </c>
       <c r="AE5" t="n">
-        <v>2222573.080873595</v>
+        <v>2398614.578048154</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.498964032163792e-07</v>
+        <v>1.493234453928473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.14660493827161</v>
       </c>
       <c r="AH5" t="n">
-        <v>2010453.825435929</v>
+        <v>2169694.169195942</v>
       </c>
     </row>
     <row r="6">
@@ -29777,28 +29777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1524.687906104881</v>
+        <v>1653.435502862745</v>
       </c>
       <c r="AB6" t="n">
-        <v>2086.145257615826</v>
+        <v>2262.303399443034</v>
       </c>
       <c r="AC6" t="n">
-        <v>1887.046482152229</v>
+        <v>2046.392338162954</v>
       </c>
       <c r="AD6" t="n">
-        <v>1524687.906104881</v>
+        <v>1653435.502862745</v>
       </c>
       <c r="AE6" t="n">
-        <v>2086145.257615826</v>
+        <v>2262303.399443035</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.707796036343272e-07</v>
+        <v>1.529925413267001e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.5408950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>1887046.482152229</v>
+        <v>2046392.338162954</v>
       </c>
     </row>
     <row r="7">
@@ -29883,28 +29883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1452.881499979832</v>
+        <v>1571.71896027606</v>
       </c>
       <c r="AB7" t="n">
-        <v>1987.896564880474</v>
+        <v>2150.495220796508</v>
       </c>
       <c r="AC7" t="n">
-        <v>1798.174506758633</v>
+        <v>1945.254975162687</v>
       </c>
       <c r="AD7" t="n">
-        <v>1452881.499979832</v>
+        <v>1571718.960276061</v>
       </c>
       <c r="AE7" t="n">
-        <v>1987896.564880474</v>
+        <v>2150495.220796507</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843509142507656e-07</v>
+        <v>1.553769670662065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1798174.506758633</v>
+        <v>1945254.975162687</v>
       </c>
     </row>
     <row r="8">
@@ -29989,28 +29989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1393.407414813806</v>
+        <v>1522.069670717098</v>
       </c>
       <c r="AB8" t="n">
-        <v>1906.521497744858</v>
+        <v>2082.562872449869</v>
       </c>
       <c r="AC8" t="n">
-        <v>1724.565761819816</v>
+        <v>1883.805994798602</v>
       </c>
       <c r="AD8" t="n">
-        <v>1393407.414813806</v>
+        <v>1522069.670717098</v>
       </c>
       <c r="AE8" t="n">
-        <v>1906521.497744858</v>
+        <v>2082562.872449869</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.921059488887302e-07</v>
+        <v>1.567394960602102e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.95447530864198</v>
       </c>
       <c r="AH8" t="n">
-        <v>1724565.761819816</v>
+        <v>1883805.994798602</v>
       </c>
     </row>
     <row r="9">
@@ -30095,28 +30095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1389.173171193815</v>
+        <v>1517.835427097108</v>
       </c>
       <c r="AB9" t="n">
-        <v>1900.728018822342</v>
+        <v>2076.769393527353</v>
       </c>
       <c r="AC9" t="n">
-        <v>1719.325204394467</v>
+        <v>1878.565437373252</v>
       </c>
       <c r="AD9" t="n">
-        <v>1389173.171193815</v>
+        <v>1517835.427097108</v>
       </c>
       <c r="AE9" t="n">
-        <v>1900728.018822342</v>
+        <v>2076769.393527353</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.934907765026525e-07</v>
+        <v>1.569828048091394e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.91975308641975</v>
       </c>
       <c r="AH9" t="n">
-        <v>1719325.204394467</v>
+        <v>1878565.437373252</v>
       </c>
     </row>
   </sheetData>
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4082.223802087992</v>
+        <v>4297.469252108128</v>
       </c>
       <c r="AB2" t="n">
-        <v>5585.47870102079</v>
+        <v>5879.98702169742</v>
       </c>
       <c r="AC2" t="n">
-        <v>5052.408453063746</v>
+        <v>5318.809312960012</v>
       </c>
       <c r="AD2" t="n">
-        <v>4082223.802087992</v>
+        <v>4297469.252108128</v>
       </c>
       <c r="AE2" t="n">
-        <v>5585478.70102079</v>
+        <v>5879987.021697421</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.964205917501253e-07</v>
+        <v>8.488238895927831e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.48533950617283</v>
       </c>
       <c r="AH2" t="n">
-        <v>5052408.453063747</v>
+        <v>5318809.312960012</v>
       </c>
     </row>
     <row r="3">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2501.44897528093</v>
+        <v>2655.232325521142</v>
       </c>
       <c r="AB3" t="n">
-        <v>3422.592844119807</v>
+        <v>3633.00600836107</v>
       </c>
       <c r="AC3" t="n">
-        <v>3095.94538671611</v>
+        <v>3286.277013878908</v>
       </c>
       <c r="AD3" t="n">
-        <v>2501448.975280929</v>
+        <v>2655232.325521142</v>
       </c>
       <c r="AE3" t="n">
-        <v>3422592.844119807</v>
+        <v>3633006.008361069</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.797225607899026e-07</v>
+        <v>1.162249829040269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.29706790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>3095945.38671611</v>
+        <v>3286277.013878908</v>
       </c>
     </row>
     <row r="4">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2129.665108618826</v>
+        <v>2273.105211232054</v>
       </c>
       <c r="AB4" t="n">
-        <v>2913.901755805915</v>
+        <v>3110.162832332223</v>
       </c>
       <c r="AC4" t="n">
-        <v>2635.803061918598</v>
+        <v>2813.33325675527</v>
       </c>
       <c r="AD4" t="n">
-        <v>2129665.108618826</v>
+        <v>2273105.211232054</v>
       </c>
       <c r="AE4" t="n">
-        <v>2913901.755805915</v>
+        <v>3110162.832332223</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.516234787562917e-07</v>
+        <v>1.285192385952256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.39969135802469</v>
       </c>
       <c r="AH4" t="n">
-        <v>2635803.061918598</v>
+        <v>2813333.25675527</v>
       </c>
     </row>
     <row r="5">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1961.253281669242</v>
+        <v>2094.520818364624</v>
       </c>
       <c r="AB5" t="n">
-        <v>2683.473264368059</v>
+        <v>2865.815787423456</v>
       </c>
       <c r="AC5" t="n">
-        <v>2427.366342295152</v>
+        <v>2592.30635086948</v>
       </c>
       <c r="AD5" t="n">
-        <v>1961253.281669242</v>
+        <v>2094520.818364624</v>
       </c>
       <c r="AE5" t="n">
-        <v>2683473.264368059</v>
+        <v>2865815.787423456</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.890418480914356e-07</v>
+        <v>1.349173627522636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.09953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>2427366.342295152</v>
+        <v>2592306.35086948</v>
       </c>
     </row>
     <row r="6">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1848.730053474613</v>
+        <v>1981.912249315423</v>
       </c>
       <c r="AB6" t="n">
-        <v>2529.514019377694</v>
+        <v>2711.739775310893</v>
       </c>
       <c r="AC6" t="n">
-        <v>2288.10075156351</v>
+        <v>2452.935137105899</v>
       </c>
       <c r="AD6" t="n">
-        <v>1848730.053474613</v>
+        <v>1981912.249315423</v>
       </c>
       <c r="AE6" t="n">
-        <v>2529514.019377694</v>
+        <v>2711739.775310893</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.133824706546675e-07</v>
+        <v>1.390793379528476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.32021604938272</v>
       </c>
       <c r="AH6" t="n">
-        <v>2288100.75156351</v>
+        <v>2452935.137105899</v>
       </c>
     </row>
     <row r="7">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1765.055257782954</v>
+        <v>1898.322704969785</v>
       </c>
       <c r="AB7" t="n">
-        <v>2415.026472440912</v>
+        <v>2597.36887302676</v>
       </c>
       <c r="AC7" t="n">
-        <v>2184.539735422093</v>
+        <v>2349.479633215194</v>
       </c>
       <c r="AD7" t="n">
-        <v>1765055.257782954</v>
+        <v>1898322.704969785</v>
       </c>
       <c r="AE7" t="n">
-        <v>2415026.472440911</v>
+        <v>2597368.873026759</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.294494166887308e-07</v>
+        <v>1.418266066707769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.82638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2184539.735422092</v>
+        <v>2349479.633215194</v>
       </c>
     </row>
     <row r="8">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1704.544103206468</v>
+        <v>1837.640958192707</v>
       </c>
       <c r="AB8" t="n">
-        <v>2332.232441185631</v>
+        <v>2514.341429996633</v>
       </c>
       <c r="AC8" t="n">
-        <v>2109.647450307664</v>
+        <v>2274.376212818114</v>
       </c>
       <c r="AD8" t="n">
-        <v>1704544.103206468</v>
+        <v>1837640.958192707</v>
       </c>
       <c r="AE8" t="n">
-        <v>2332232.441185631</v>
+        <v>2514341.429996633</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.411393209460724e-07</v>
+        <v>1.43825450023689e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.48302469135803</v>
       </c>
       <c r="AH8" t="n">
-        <v>2109647.450307664</v>
+        <v>2274376.212818114</v>
       </c>
     </row>
     <row r="9">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1648.551062514153</v>
+        <v>1771.560692437119</v>
       </c>
       <c r="AB9" t="n">
-        <v>2255.620292671791</v>
+        <v>2423.927495134261</v>
       </c>
       <c r="AC9" t="n">
-        <v>2040.347057722159</v>
+        <v>2192.591257002252</v>
       </c>
       <c r="AD9" t="n">
-        <v>1648551.062514153</v>
+        <v>1771560.692437119</v>
       </c>
       <c r="AE9" t="n">
-        <v>2255620.292671791</v>
+        <v>2423927.495134261</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.508008399898114e-07</v>
+        <v>1.454774621098857e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.20524691358025</v>
       </c>
       <c r="AH9" t="n">
-        <v>2040347.057722159</v>
+        <v>2192591.257002253</v>
       </c>
     </row>
     <row r="10">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1596.503441867732</v>
+        <v>1719.513071790698</v>
       </c>
       <c r="AB10" t="n">
-        <v>2184.406441924392</v>
+        <v>2352.713644386862</v>
       </c>
       <c r="AC10" t="n">
-        <v>1975.929756940824</v>
+        <v>2128.173956220918</v>
       </c>
       <c r="AD10" t="n">
-        <v>1596503.441867732</v>
+        <v>1719513.071790698</v>
       </c>
       <c r="AE10" t="n">
-        <v>2184406.441924392</v>
+        <v>2352713.644386861</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.577934311209152e-07</v>
+        <v>1.466731172661938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.00848765432099</v>
       </c>
       <c r="AH10" t="n">
-        <v>1975929.756940824</v>
+        <v>2128173.956220918</v>
       </c>
     </row>
     <row r="11">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1552.27923566356</v>
+        <v>1685.46134199582</v>
       </c>
       <c r="AB11" t="n">
-        <v>2123.896931961563</v>
+        <v>2306.122565425214</v>
       </c>
       <c r="AC11" t="n">
-        <v>1921.195189683217</v>
+        <v>2086.02946444438</v>
       </c>
       <c r="AD11" t="n">
-        <v>1552279.23566356</v>
+        <v>1685461.341995819</v>
       </c>
       <c r="AE11" t="n">
-        <v>2123896.931961563</v>
+        <v>2306122.565425214</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.619035801063734e-07</v>
+        <v>1.473759069382223e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.89274691358025</v>
       </c>
       <c r="AH11" t="n">
-        <v>1921195.189683217</v>
+        <v>2086029.46444438</v>
       </c>
     </row>
     <row r="12">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1543.756490410988</v>
+        <v>1676.938596743247</v>
       </c>
       <c r="AB12" t="n">
-        <v>2112.235735910011</v>
+        <v>2294.461369373661</v>
       </c>
       <c r="AC12" t="n">
-        <v>1910.646921816233</v>
+        <v>2075.481196577395</v>
       </c>
       <c r="AD12" t="n">
-        <v>1543756.490410988</v>
+        <v>1676938.596743247</v>
       </c>
       <c r="AE12" t="n">
-        <v>2112235.735910011</v>
+        <v>2294461.369373661</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.631846655044382e-07</v>
+        <v>1.475949582645688e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.85802469135803</v>
       </c>
       <c r="AH12" t="n">
-        <v>1910646.921816233</v>
+        <v>2075481.196577395</v>
       </c>
     </row>
     <row r="13">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1545.402757724157</v>
+        <v>1678.584864056417</v>
       </c>
       <c r="AB13" t="n">
-        <v>2114.488231476077</v>
+        <v>2296.713864939727</v>
       </c>
       <c r="AC13" t="n">
-        <v>1912.684442366871</v>
+        <v>2077.518717128033</v>
       </c>
       <c r="AD13" t="n">
-        <v>1545402.757724158</v>
+        <v>1678584.864056417</v>
       </c>
       <c r="AE13" t="n">
-        <v>2114488.231476076</v>
+        <v>2296713.864939727</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.639853438782287e-07</v>
+        <v>1.477318653435354e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.83487654320988</v>
       </c>
       <c r="AH13" t="n">
-        <v>1912684.442366871</v>
+        <v>2077518.717128033</v>
       </c>
     </row>
   </sheetData>
@@ -31855,28 +31855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.6248440970832</v>
+        <v>941.4705912855241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.392823924847</v>
+        <v>1288.161597747967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.31884213277</v>
+        <v>1165.221262805057</v>
       </c>
       <c r="AD2" t="n">
-        <v>827624.8440970832</v>
+        <v>941470.5912855241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132392.823924847</v>
+        <v>1288161.597747967</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.334184516087755e-07</v>
+        <v>2.00074566543293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.34876543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024318.84213277</v>
+        <v>1165221.262805057</v>
       </c>
     </row>
   </sheetData>
@@ -32152,28 +32152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1945.02096512123</v>
+        <v>2094.987527867928</v>
       </c>
       <c r="AB2" t="n">
-        <v>2661.263492747804</v>
+        <v>2866.454359955647</v>
       </c>
       <c r="AC2" t="n">
-        <v>2407.276240106724</v>
+        <v>2592.883978935442</v>
       </c>
       <c r="AD2" t="n">
-        <v>1945020.96512123</v>
+        <v>2094987.527867928</v>
       </c>
       <c r="AE2" t="n">
-        <v>2661263.492747804</v>
+        <v>2866454.359955647</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.328500620987432e-07</v>
+        <v>1.350226797763731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.94907407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2407276.240106724</v>
+        <v>2592883.978935441</v>
       </c>
     </row>
     <row r="3">
@@ -32258,28 +32258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1442.062896702277</v>
+        <v>1563.894817032288</v>
       </c>
       <c r="AB3" t="n">
-        <v>1973.094074593031</v>
+        <v>2139.78988283354</v>
       </c>
       <c r="AC3" t="n">
-        <v>1784.784745368798</v>
+        <v>1935.571339629869</v>
       </c>
       <c r="AD3" t="n">
-        <v>1442062.896702277</v>
+        <v>1563894.817032288</v>
       </c>
       <c r="AE3" t="n">
-        <v>1973094.074593031</v>
+        <v>2139789.88283354</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.704137670009619e-07</v>
+        <v>1.603678643325028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.0570987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>1784784.745368798</v>
+        <v>1935571.339629869</v>
       </c>
     </row>
     <row r="4">
@@ -32364,28 +32364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1260.895089926729</v>
+        <v>1382.726920748189</v>
       </c>
       <c r="AB4" t="n">
-        <v>1725.212288803178</v>
+        <v>1891.907974574139</v>
       </c>
       <c r="AC4" t="n">
-        <v>1560.560449310457</v>
+        <v>1711.346932790302</v>
       </c>
       <c r="AD4" t="n">
-        <v>1260895.089926729</v>
+        <v>1382726.920748189</v>
       </c>
       <c r="AE4" t="n">
-        <v>1725212.288803178</v>
+        <v>1891907.974574139</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.192665186136731e-07</v>
+        <v>1.693686542325643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.67206790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>1560560.449310457</v>
+        <v>1711346.932790302</v>
       </c>
     </row>
     <row r="5">
@@ -32470,28 +32470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1198.865009675711</v>
+        <v>1311.318686030643</v>
       </c>
       <c r="AB5" t="n">
-        <v>1640.339996429733</v>
+        <v>1794.204077524615</v>
       </c>
       <c r="AC5" t="n">
-        <v>1483.788249402123</v>
+        <v>1622.967758546903</v>
       </c>
       <c r="AD5" t="n">
-        <v>1198865.009675711</v>
+        <v>1311318.686030643</v>
       </c>
       <c r="AE5" t="n">
-        <v>1640339.996429733</v>
+        <v>1794204.077524615</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35668344967399e-07</v>
+        <v>1.723905800834874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.23996913580247</v>
       </c>
       <c r="AH5" t="n">
-        <v>1483788.249402123</v>
+        <v>1622967.758546903</v>
       </c>
     </row>
     <row r="6">
@@ -32576,28 +32576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1201.462750178729</v>
+        <v>1313.916426533661</v>
       </c>
       <c r="AB6" t="n">
-        <v>1643.894339590184</v>
+        <v>1797.758420685065</v>
       </c>
       <c r="AC6" t="n">
-        <v>1487.003371039893</v>
+        <v>1626.182880184673</v>
       </c>
       <c r="AD6" t="n">
-        <v>1201462.750178729</v>
+        <v>1313916.426533661</v>
       </c>
       <c r="AE6" t="n">
-        <v>1643894.339590184</v>
+        <v>1797758.420685065</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.363150119562557e-07</v>
+        <v>1.725097241134521e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.22453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1487003.371039893</v>
+        <v>1626182.880184673</v>
       </c>
     </row>
   </sheetData>
@@ -32873,28 +32873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2557.871279733166</v>
+        <v>2722.920020482486</v>
       </c>
       <c r="AB2" t="n">
-        <v>3499.792330247758</v>
+        <v>3725.619298777534</v>
       </c>
       <c r="AC2" t="n">
-        <v>3165.777062238164</v>
+        <v>3370.051421841592</v>
       </c>
       <c r="AD2" t="n">
-        <v>2557871.279733167</v>
+        <v>2722920.020482486</v>
       </c>
       <c r="AE2" t="n">
-        <v>3499792.330247758</v>
+        <v>3725619.298777534</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.412797518634672e-07</v>
+        <v>1.145599477210426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>3165777.062238165</v>
+        <v>3370051.421841592</v>
       </c>
     </row>
     <row r="3">
@@ -32979,28 +32979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1785.341319261182</v>
+        <v>1921.163426433223</v>
       </c>
       <c r="AB3" t="n">
-        <v>2442.782756713291</v>
+        <v>2628.620555794549</v>
       </c>
       <c r="AC3" t="n">
-        <v>2209.646998879706</v>
+        <v>2377.748699241637</v>
       </c>
       <c r="AD3" t="n">
-        <v>1785341.319261182</v>
+        <v>1921163.426433223</v>
       </c>
       <c r="AE3" t="n">
-        <v>2442782.756713291</v>
+        <v>2628620.555794549</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.969867772276682e-07</v>
+        <v>1.423758714792587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.39969135802469</v>
       </c>
       <c r="AH3" t="n">
-        <v>2209646.998879706</v>
+        <v>2377748.699241637</v>
       </c>
     </row>
     <row r="4">
@@ -33085,28 +33085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1565.614753395717</v>
+        <v>1691.893688527448</v>
       </c>
       <c r="AB4" t="n">
-        <v>2142.14317564422</v>
+        <v>2314.923585724888</v>
       </c>
       <c r="AC4" t="n">
-        <v>1937.700037477565</v>
+        <v>2093.990527718963</v>
       </c>
       <c r="AD4" t="n">
-        <v>1565614.753395717</v>
+        <v>1691893.688527448</v>
       </c>
       <c r="AE4" t="n">
-        <v>2142143.17564422</v>
+        <v>2314923.585724888</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.541529333955503e-07</v>
+        <v>1.525881880898724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.56327160493827</v>
       </c>
       <c r="AH4" t="n">
-        <v>1937700.037477565</v>
+        <v>2093990.527718963</v>
       </c>
     </row>
     <row r="5">
@@ -33191,28 +33191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1439.286562218738</v>
+        <v>1565.480156495897</v>
       </c>
       <c r="AB5" t="n">
-        <v>1969.29537126942</v>
+        <v>2141.959014227891</v>
       </c>
       <c r="AC5" t="n">
-        <v>1781.348584958879</v>
+        <v>1937.533452168338</v>
       </c>
       <c r="AD5" t="n">
-        <v>1439286.562218738</v>
+        <v>1565480.156495897</v>
       </c>
       <c r="AE5" t="n">
-        <v>1969295.37126942</v>
+        <v>2141959.014227891</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.850566178189795e-07</v>
+        <v>1.581089057823427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.67206790123457</v>
       </c>
       <c r="AH5" t="n">
-        <v>1781348.584958879</v>
+        <v>1937533.452168338</v>
       </c>
     </row>
     <row r="6">
@@ -33297,28 +33297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1356.20130544393</v>
+        <v>1472.681224988738</v>
       </c>
       <c r="AB6" t="n">
-        <v>1855.614457487294</v>
+        <v>2014.987422139878</v>
       </c>
       <c r="AC6" t="n">
-        <v>1678.517218035955</v>
+        <v>1822.679850623456</v>
       </c>
       <c r="AD6" t="n">
-        <v>1356201.30544393</v>
+        <v>1472681.224988738</v>
       </c>
       <c r="AE6" t="n">
-        <v>1855614.457487294</v>
+        <v>2014987.422139878</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031686672979123e-07</v>
+        <v>1.613444912431312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.17824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1678517.218035955</v>
+        <v>1822679.850623456</v>
       </c>
     </row>
     <row r="7">
@@ -33403,28 +33403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1321.543234709961</v>
+        <v>1438.023154254769</v>
       </c>
       <c r="AB7" t="n">
-        <v>1808.193756102909</v>
+        <v>1967.566720755492</v>
       </c>
       <c r="AC7" t="n">
-        <v>1635.622281836323</v>
+        <v>1779.784914423824</v>
       </c>
       <c r="AD7" t="n">
-        <v>1321543.234709961</v>
+        <v>1438023.154254769</v>
       </c>
       <c r="AE7" t="n">
-        <v>1808193.756102909</v>
+        <v>1967566.720755492</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.097908853886471e-07</v>
+        <v>1.62527502177232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.00077160493827</v>
       </c>
       <c r="AH7" t="n">
-        <v>1635622.281836323</v>
+        <v>1779784.914423824</v>
       </c>
     </row>
     <row r="8">
@@ -33509,28 +33509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1328.21630059415</v>
+        <v>1444.696220138958</v>
       </c>
       <c r="AB8" t="n">
-        <v>1817.324139240546</v>
+        <v>1976.697103893129</v>
       </c>
       <c r="AC8" t="n">
-        <v>1643.881274021877</v>
+        <v>1788.043906609378</v>
       </c>
       <c r="AD8" t="n">
-        <v>1328216.30059415</v>
+        <v>1444696.220138958</v>
       </c>
       <c r="AE8" t="n">
-        <v>1817324.139240546</v>
+        <v>1976697.103893129</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.096210849247821e-07</v>
+        <v>1.624971685635371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1643881.274021877</v>
+        <v>1788043.906609378</v>
       </c>
     </row>
   </sheetData>
